--- a/STM32F103RCT6资源分配.xlsx
+++ b/STM32F103RCT6资源分配.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\大三比赛玩一玩\生物学院的一个东西\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\大三比赛玩一玩\生物学院的一个东西\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F8C389-6FD1-41BE-AB94-A1EF5D06FBAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5553F2AC-603C-43F8-B34C-6CA220193031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="146">
   <si>
     <t>PC13</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,18 +425,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LED_SDO(MISO)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ISP/USB_TTL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IIC_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Encoder1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -453,18 +445,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TIM4-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TIM4+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单PWM*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任务时间片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -489,6 +473,68 @@
   </si>
   <si>
     <t>USART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注修改信息记录：
+1、由于暂时硬件设备不在手头，为避免异常，避免使用管脚映射，尽量使用第一功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM2_CH1</t>
+  </si>
+  <si>
+    <t>LCD液晶屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统调试串口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3路定时器互补输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM1系统时间片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM5编码开关1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM4编码开关2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD_SDO(MISO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC电流闭环检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART2无线串口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝牙或ESP8266</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/////////////////</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIC_2
+温度检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIC_1
+数据存储</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +542,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,8 +587,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,8 +631,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -798,11 +928,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -840,18 +1099,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -859,9 +1106,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -876,8 +1120,245 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -906,14 +1387,113 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1195,10 +1775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1206,54 +1786,55 @@
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="113" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="127" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.21875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="17" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="17"/>
-    <col min="13" max="13" width="11.77734375" style="17" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" style="44" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" style="13" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="87" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" style="49" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="38" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="26" t="s">
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="102"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="20" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="122" t="s">
         <v>102</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -1265,258 +1846,257 @@
       <c r="H2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="55" t="s">
         <v>112</v>
       </c>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="24" t="s">
+    <row r="3" spans="1:15" s="18" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="K3" s="24" t="s">
+      <c r="I3" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="47"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" s="51" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="47"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="56"/>
+    </row>
+    <row r="6" spans="1:15" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="129" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="123"/>
+      <c r="E6" s="134" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="131" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="132"/>
+    </row>
+    <row r="7" spans="1:15" s="133" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="129" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="123"/>
+      <c r="E7" s="135" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="131" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="131" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="132"/>
+    </row>
+    <row r="8" spans="1:15" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="115" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="117"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="118"/>
+    </row>
+    <row r="9" spans="1:15" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="M3" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="13"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="D9" s="117"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="118"/>
+    </row>
+    <row r="10" spans="1:15" s="119" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="115" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12" t="s">
+      <c r="D10" s="117"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="118"/>
+    </row>
+    <row r="11" spans="1:15" s="36" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12" t="s">
+      <c r="J11" s="34"/>
+      <c r="K11" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="35" t="s">
+      <c r="L11" s="84"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="60" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>75</v>
       </c>
@@ -1524,515 +2104,529 @@
         <v>80</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="42" t="s">
         <v>80</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="L12" s="84"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="56"/>
+    </row>
+    <row r="13" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12" t="s">
+      <c r="B13" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="23" t="s">
+      <c r="E13" s="123"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="56"/>
+    </row>
+    <row r="14" spans="1:15" s="30" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12" t="s">
+      <c r="B14" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="23" t="s">
+      <c r="E14" s="123"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="56"/>
+    </row>
+    <row r="15" spans="1:15" s="140" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="12" t="s">
+      <c r="B15" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="137"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="139"/>
+    </row>
+    <row r="16" spans="1:15" s="140" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="141"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="139"/>
+    </row>
+    <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="123"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="12"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="L17" s="84"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="56"/>
+    </row>
+    <row r="18" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="12" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12" t="s">
+      <c r="J18" s="34"/>
+      <c r="K18" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="35" t="s">
+      <c r="L18" s="84"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:15" s="36" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12" t="s">
+      <c r="D19" s="29"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12" t="s">
+      <c r="J19" s="34"/>
+      <c r="K19" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="35" t="s">
+      <c r="L19" s="84"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="62" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="13"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="L20" s="84"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="56"/>
+    </row>
+    <row r="21" spans="1:15" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12" t="s">
+      <c r="B21" s="91"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12" t="s">
+      <c r="E21" s="123"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="M21" s="84"/>
+      <c r="N21" s="92"/>
+    </row>
+    <row r="22" spans="1:15" s="93" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="s">
+      <c r="B22" s="91"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12" t="s">
+      <c r="E22" s="123"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="M22" s="12"/>
-      <c r="N22" s="13"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M22" s="84"/>
+      <c r="N22" s="92"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+      <c r="I23" s="41"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="M23" s="12"/>
-      <c r="N23" s="13"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M23" s="47"/>
+      <c r="N23" s="56"/>
+    </row>
+    <row r="24" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>125</v>
+      <c r="B24" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+      <c r="I24" s="41"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="M24" s="12"/>
-      <c r="N24" s="13"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="M24" s="47"/>
+      <c r="N24" s="56"/>
+    </row>
+    <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="11" t="s">
+      <c r="C25" s="78"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12" t="s">
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="13"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K25" s="79"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="82"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="123"/>
       <c r="F26" s="5" t="s">
         <v>63</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="12"/>
+      <c r="I26" s="41"/>
       <c r="J26" s="12" t="s">
         <v>23</v>
       </c>
       <c r="K26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="13"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M26" s="47"/>
+      <c r="N26" s="56"/>
+    </row>
+    <row r="27" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="123"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="12"/>
+      <c r="I27" s="41"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="13"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="L27" s="84"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="56"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="12" t="s">
+      <c r="C28" s="66"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="13"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="25"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="12" t="s">
+      <c r="B29" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="13"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="25"/>
+    </row>
+    <row r="30" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="12" t="s">
+      <c r="C30" s="73"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="13"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="25"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="123"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="12"/>
+      <c r="I31" s="41"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="13"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L31" s="84"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="56"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="C32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="123"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="12"/>
+      <c r="I32" s="41"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="13"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="56"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="C33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="123"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="12"/>
+      <c r="I33" s="41"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="13"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="56"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="5"/>
+      <c r="B34" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="C34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="123"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="12"/>
+      <c r="I34" s="41"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="13"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="56"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="C35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="123"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="12"/>
+      <c r="I35" s="41"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="13"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="56"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -2042,19 +2636,19 @@
       <c r="C36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="123"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="12"/>
+      <c r="I36" s="41"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="13"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L36" s="84"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="56"/>
+    </row>
+    <row r="37" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
@@ -2062,80 +2656,83 @@
       <c r="C37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="123"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="12"/>
+      <c r="I37" s="41"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="13"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="L37" s="84"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="56"/>
+    </row>
+    <row r="38" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12" t="s">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="L38" s="12"/>
-      <c r="N38" s="35" t="s">
+      <c r="L38" s="84"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="61" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="L39" s="12"/>
-      <c r="N39" s="35" t="s">
+      <c r="L39" s="84"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="63" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:14" s="36" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12" t="s">
+      <c r="C40" s="33"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="123"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="L40" s="12"/>
-      <c r="N40" s="35" t="s">
+      <c r="L40" s="84"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="62" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2145,118 +2742,122 @@
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="123"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="12"/>
+      <c r="I41" s="41"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="12"/>
-      <c r="N41" s="13" t="s">
+      <c r="L41" s="84"/>
+      <c r="N41" s="56" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:14" s="140" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="5" t="s">
+      <c r="B42" s="143" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="137"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="138"/>
+      <c r="F42" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="13"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="H42" s="137"/>
+      <c r="I42" s="138"/>
+      <c r="J42" s="138"/>
+      <c r="K42" s="138"/>
+      <c r="L42" s="138"/>
+      <c r="M42" s="138"/>
+      <c r="N42" s="139"/>
+    </row>
+    <row r="43" spans="1:14" s="140" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="5" t="s">
+      <c r="B43" s="142"/>
+      <c r="C43" s="137"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="138"/>
+      <c r="F43" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="13"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="H43" s="137"/>
+      <c r="I43" s="138"/>
+      <c r="J43" s="138"/>
+      <c r="K43" s="138"/>
+      <c r="L43" s="138"/>
+      <c r="M43" s="138"/>
+      <c r="N43" s="139"/>
+    </row>
+    <row r="44" spans="1:14" s="140" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5" t="s">
+      <c r="B44" s="142"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="13"/>
+      <c r="I44" s="138"/>
+      <c r="J44" s="138"/>
+      <c r="K44" s="138"/>
+      <c r="L44" s="138"/>
+      <c r="M44" s="138"/>
+      <c r="N44" s="139"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="5"/>
+      <c r="B45" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="123"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="12"/>
+      <c r="I45" s="41"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="13"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="56"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="123"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="12"/>
+      <c r="I46" s="41"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="13"/>
+      <c r="L46" s="84"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="56"/>
     </row>
     <row r="47" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
@@ -2264,27 +2865,138 @@
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="126"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="16"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="57"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="99"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="99"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="99"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="99"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="99"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="99"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="99"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="99"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="99"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="99"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="99"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="99"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="24"/>
+      <c r="B54" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="30"/>
+      <c r="B55" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="36"/>
+      <c r="B56" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="45"/>
+      <c r="B57" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="51"/>
+      <c r="B58" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="93"/>
+      <c r="B59" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="119"/>
+      <c r="B60" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="133"/>
+      <c r="B61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="A49:I53"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B42:B44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/STM32F103RCT6资源分配.xlsx
+++ b/STM32F103RCT6资源分配.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\大三比赛玩一玩\生物学院的一个东西\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5553F2AC-603C-43F8-B34C-6CA220193031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64AF6D8-DC20-4A6C-9226-1BCD5772626E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="148">
   <si>
     <t>PC13</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,6 +535,14 @@
   <si>
     <t>IIC_1
 数据存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIC_2温度检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIC_1存储EEPROM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1354,6 +1362,102 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1387,113 +1491,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1775,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1786,8 +1794,8 @@
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="113" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="127" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="102" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="116" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
@@ -1801,40 +1809,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="139" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="132" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="100" t="s">
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="132" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="102"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="134"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="104"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="109" t="s">
+      <c r="A2" s="136"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="E2" s="111" t="s">
         <v>102</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -1873,7 +1881,7 @@
       <c r="D3" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="123" t="s">
+      <c r="E3" s="112" t="s">
         <v>129</v>
       </c>
       <c r="I3" s="40" t="s">
@@ -1903,7 +1911,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="29"/>
-      <c r="E4" s="123"/>
+      <c r="E4" s="112"/>
       <c r="F4" s="54"/>
       <c r="G4" s="54"/>
       <c r="H4" s="54"/>
@@ -1929,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="29"/>
-      <c r="E5" s="123"/>
+      <c r="E5" s="112"/>
       <c r="F5" s="54"/>
       <c r="G5" s="54"/>
       <c r="H5" s="54"/>
@@ -1944,129 +1952,129 @@
       </c>
       <c r="N5" s="56"/>
     </row>
-    <row r="6" spans="1:15" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="128" t="s">
+    <row r="6" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="118" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="123"/>
-      <c r="E6" s="134" t="s">
+      <c r="D6" s="112"/>
+      <c r="E6" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="131" t="s">
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="131" t="s">
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="132"/>
-    </row>
-    <row r="7" spans="1:15" s="133" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="128" t="s">
+      <c r="N6" s="121"/>
+    </row>
+    <row r="7" spans="1:15" s="122" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="118" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="135" t="s">
+      <c r="D7" s="112"/>
+      <c r="E7" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="131" t="s">
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="131" t="s">
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="132"/>
-    </row>
-    <row r="8" spans="1:15" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="114" t="s">
+      <c r="N7" s="121"/>
+    </row>
+    <row r="8" spans="1:15" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="118"/>
-    </row>
-    <row r="9" spans="1:15" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114" t="s">
+      <c r="D8" s="106"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="107"/>
+    </row>
+    <row r="9" spans="1:15" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="117"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="118"/>
-    </row>
-    <row r="10" spans="1:15" s="119" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="114" t="s">
+      <c r="D9" s="106"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="107"/>
+    </row>
+    <row r="10" spans="1:15" s="108" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="121" t="s">
+      <c r="D10" s="106"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="118"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="107"/>
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
@@ -2079,7 +2087,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="29"/>
-      <c r="E11" s="123"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
@@ -2105,7 +2113,7 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="29"/>
-      <c r="E12" s="123"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -2129,7 +2137,7 @@
       <c r="D13" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="123"/>
+      <c r="E13" s="112"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -2153,7 +2161,7 @@
       <c r="D14" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="123"/>
+      <c r="E14" s="112"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -2166,52 +2174,52 @@
       <c r="M14" s="47"/>
       <c r="N14" s="56"/>
     </row>
-    <row r="15" spans="1:15" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="136" t="s">
+    <row r="15" spans="1:15" s="129" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="144" t="s">
+      <c r="B15" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="137"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="138" t="s">
+      <c r="C15" s="126"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="138"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="139"/>
-    </row>
-    <row r="16" spans="1:15" s="140" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="136" t="s">
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="128"/>
+    </row>
+    <row r="16" spans="1:15" s="129" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="141"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
-      <c r="N16" s="139"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="128"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="123"/>
+      <c r="E17" s="112"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -2233,7 +2241,7 @@
         <v>48</v>
       </c>
       <c r="D18" s="29"/>
-      <c r="E18" s="123"/>
+      <c r="E18" s="112"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
@@ -2261,7 +2269,7 @@
         <v>49</v>
       </c>
       <c r="D19" s="29"/>
-      <c r="E19" s="123"/>
+      <c r="E19" s="112"/>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
@@ -2287,7 +2295,7 @@
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="123"/>
+      <c r="E20" s="112"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -2309,7 +2317,7 @@
       <c r="D21" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="123"/>
+      <c r="E21" s="112"/>
       <c r="F21" s="84"/>
       <c r="G21" s="84"/>
       <c r="H21" s="84"/>
@@ -2331,7 +2339,7 @@
       <c r="D22" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="123"/>
+      <c r="E22" s="112"/>
       <c r="F22" s="84"/>
       <c r="G22" s="84"/>
       <c r="H22" s="84"/>
@@ -2353,7 +2361,7 @@
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="29"/>
-      <c r="E23" s="123"/>
+      <c r="E23" s="112"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -2375,7 +2383,7 @@
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="123"/>
+      <c r="E24" s="112"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -2396,8 +2404,8 @@
         <v>115</v>
       </c>
       <c r="C25" s="78"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="124"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="113"/>
       <c r="F25" s="78" t="s">
         <v>62</v>
       </c>
@@ -2421,7 +2429,7 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="123"/>
+      <c r="E26" s="112"/>
       <c r="F26" s="5" t="s">
         <v>63</v>
       </c>
@@ -2444,7 +2452,7 @@
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="29"/>
-      <c r="E27" s="123"/>
+      <c r="E27" s="112"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2463,8 +2471,8 @@
         <v>117</v>
       </c>
       <c r="C28" s="66"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="125"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="114"/>
       <c r="F28" s="66"/>
       <c r="G28" s="66"/>
       <c r="H28" s="66"/>
@@ -2487,7 +2495,7 @@
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="29"/>
-      <c r="E29" s="123"/>
+      <c r="E29" s="112"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
@@ -2509,8 +2517,8 @@
         <v>116</v>
       </c>
       <c r="C30" s="73"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="126"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="115"/>
       <c r="F30" s="73"/>
       <c r="G30" s="73"/>
       <c r="H30" s="73"/>
@@ -2529,7 +2537,7 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="29"/>
-      <c r="E31" s="123"/>
+      <c r="E31" s="112"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -2551,7 +2559,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="29"/>
-      <c r="E32" s="123"/>
+      <c r="E32" s="112"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -2573,7 +2581,7 @@
         <v>14</v>
       </c>
       <c r="D33" s="29"/>
-      <c r="E33" s="123"/>
+      <c r="E33" s="112"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -2595,7 +2603,7 @@
         <v>15</v>
       </c>
       <c r="D34" s="29"/>
-      <c r="E34" s="123"/>
+      <c r="E34" s="112"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -2617,7 +2625,7 @@
         <v>16</v>
       </c>
       <c r="D35" s="29"/>
-      <c r="E35" s="123"/>
+      <c r="E35" s="112"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -2637,7 +2645,7 @@
         <v>40</v>
       </c>
       <c r="D36" s="29"/>
-      <c r="E36" s="123"/>
+      <c r="E36" s="112"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -2657,7 +2665,7 @@
         <v>41</v>
       </c>
       <c r="D37" s="29"/>
-      <c r="E37" s="123"/>
+      <c r="E37" s="112"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -2675,7 +2683,7 @@
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
       <c r="D38" s="29"/>
-      <c r="E38" s="123"/>
+      <c r="E38" s="112"/>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
@@ -2697,7 +2705,7 @@
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
       <c r="D39" s="29"/>
-      <c r="E39" s="123"/>
+      <c r="E39" s="112"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
@@ -2721,7 +2729,7 @@
       </c>
       <c r="C40" s="33"/>
       <c r="D40" s="29"/>
-      <c r="E40" s="123"/>
+      <c r="E40" s="112"/>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
@@ -2743,7 +2751,7 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="29"/>
-      <c r="E41" s="123"/>
+      <c r="E41" s="112"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -2757,71 +2765,71 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="136" t="s">
+    <row r="42" spans="1:14" s="129" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="125" t="s">
         <v>86</v>
       </c>
       <c r="B42" s="143" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="137"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="138"/>
-      <c r="F42" s="137" t="s">
+      <c r="C42" s="126"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="137" t="s">
+      <c r="G42" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="H42" s="137"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="138"/>
-      <c r="K42" s="138"/>
-      <c r="L42" s="138"/>
-      <c r="M42" s="138"/>
-      <c r="N42" s="139"/>
-    </row>
-    <row r="43" spans="1:14" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="136" t="s">
+      <c r="H42" s="126"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="127"/>
+      <c r="L42" s="127"/>
+      <c r="M42" s="127"/>
+      <c r="N42" s="128"/>
+    </row>
+    <row r="43" spans="1:14" s="129" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="142"/>
-      <c r="C43" s="137"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="137" t="s">
+      <c r="B43" s="144"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="G43" s="137" t="s">
+      <c r="G43" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="H43" s="137"/>
-      <c r="I43" s="138"/>
-      <c r="J43" s="138"/>
-      <c r="K43" s="138"/>
-      <c r="L43" s="138"/>
-      <c r="M43" s="138"/>
-      <c r="N43" s="139"/>
-    </row>
-    <row r="44" spans="1:14" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="136" t="s">
+      <c r="H43" s="126"/>
+      <c r="I43" s="127"/>
+      <c r="J43" s="127"/>
+      <c r="K43" s="127"/>
+      <c r="L43" s="127"/>
+      <c r="M43" s="127"/>
+      <c r="N43" s="128"/>
+    </row>
+    <row r="44" spans="1:14" s="129" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="142"/>
-      <c r="C44" s="137"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="138"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="137" t="s">
+      <c r="B44" s="144"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="126"/>
+      <c r="G44" s="126"/>
+      <c r="H44" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="I44" s="138"/>
-      <c r="J44" s="138"/>
-      <c r="K44" s="138"/>
-      <c r="L44" s="138"/>
-      <c r="M44" s="138"/>
-      <c r="N44" s="139"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="127"/>
+      <c r="K44" s="127"/>
+      <c r="L44" s="127"/>
+      <c r="M44" s="127"/>
+      <c r="N44" s="128"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -2832,7 +2840,7 @@
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="29"/>
-      <c r="E45" s="123"/>
+      <c r="E45" s="112"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -2848,7 +2856,7 @@
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="29"/>
-      <c r="E46" s="123"/>
+      <c r="E46" s="112"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -2865,8 +2873,8 @@
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="126"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="115"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7" t="s">
@@ -2880,61 +2888,61 @@
       <c r="N47" s="57"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="98" t="s">
+      <c r="A49" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="B49" s="99"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
+      <c r="B49" s="131"/>
+      <c r="C49" s="131"/>
+      <c r="D49" s="131"/>
+      <c r="E49" s="131"/>
+      <c r="F49" s="131"/>
+      <c r="G49" s="131"/>
+      <c r="H49" s="131"/>
+      <c r="I49" s="131"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="99"/>
-      <c r="B50" s="99"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="99"/>
-      <c r="H50" s="99"/>
-      <c r="I50" s="99"/>
+      <c r="A50" s="131"/>
+      <c r="B50" s="131"/>
+      <c r="C50" s="131"/>
+      <c r="D50" s="131"/>
+      <c r="E50" s="131"/>
+      <c r="F50" s="131"/>
+      <c r="G50" s="131"/>
+      <c r="H50" s="131"/>
+      <c r="I50" s="131"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="99"/>
-      <c r="B51" s="99"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="99"/>
-      <c r="I51" s="99"/>
+      <c r="A51" s="131"/>
+      <c r="B51" s="131"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="131"/>
+      <c r="G51" s="131"/>
+      <c r="H51" s="131"/>
+      <c r="I51" s="131"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="99"/>
-      <c r="B52" s="99"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="99"/>
-      <c r="I52" s="99"/>
+      <c r="A52" s="131"/>
+      <c r="B52" s="131"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="131"/>
+      <c r="F52" s="131"/>
+      <c r="G52" s="131"/>
+      <c r="H52" s="131"/>
+      <c r="I52" s="131"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="99"/>
-      <c r="B53" s="99"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="99"/>
-      <c r="I53" s="99"/>
+      <c r="A53" s="131"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="131"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
@@ -2973,18 +2981,30 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="119"/>
+      <c r="A60" s="108"/>
       <c r="B60" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="133"/>
+      <c r="A61" s="122"/>
       <c r="B61" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="126"/>
+      <c r="B62" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="125"/>
+      <c r="B63" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/STM32F103RCT6资源分配.xlsx
+++ b/STM32F103RCT6资源分配.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\大三比赛玩一玩\生物学院的一个东西\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64AF6D8-DC20-4A6C-9226-1BCD5772626E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E47172-A13E-4A02-A6EC-FB02B0377AF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="149">
   <si>
     <t>PC13</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,6 +543,10 @@
   </si>
   <si>
     <t>IIC_1存储EEPROM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换成其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1069,7 +1073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1186,9 +1190,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1785,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1794,55 +1795,55 @@
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="102" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="116" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="101" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="115" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" style="44" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" style="43" customWidth="1"/>
     <col min="10" max="10" width="11.21875" style="13" customWidth="1"/>
     <col min="11" max="11" width="11.88671875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" style="87" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" style="49" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="86" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" style="48" customWidth="1"/>
     <col min="14" max="14" width="11.44140625" style="38" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="132" t="s">
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="131" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="134"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="133"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="136"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="98" t="s">
+      <c r="A2" s="135"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="110" t="s">
         <v>102</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -1863,13 +1864,13 @@
       <c r="K2" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="83" t="s">
+      <c r="L2" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="N2" s="54" t="s">
         <v>112</v>
       </c>
       <c r="O2" s="3"/>
@@ -1881,200 +1882,197 @@
       <c r="D3" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="112" t="s">
+      <c r="E3" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="19" t="s">
+      <c r="I3" s="19" t="s">
         <v>124</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="55" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+    <row r="4" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="53" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="29"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48" t="s">
+      <c r="E4" s="111"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="58" t="s">
+      <c r="K4" s="46"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="56"/>
-    </row>
-    <row r="5" spans="1:15" s="51" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+      <c r="N4" s="55"/>
+    </row>
+    <row r="5" spans="1:15" s="50" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="53" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="29"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48" t="s">
+      <c r="E5" s="111"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="59" t="s">
+      <c r="K5" s="46"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="56"/>
-    </row>
-    <row r="6" spans="1:15" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="117" t="s">
+      <c r="N5" s="55"/>
+    </row>
+    <row r="6" spans="1:15" s="121" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="123" t="s">
+      <c r="D6" s="111"/>
+      <c r="E6" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="120" t="s">
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="120" t="s">
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="121"/>
-    </row>
-    <row r="7" spans="1:15" s="122" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="117" t="s">
+      <c r="N6" s="120"/>
+    </row>
+    <row r="7" spans="1:15" s="121" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="112"/>
-      <c r="E7" s="124" t="s">
+      <c r="D7" s="111"/>
+      <c r="E7" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="120" t="s">
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="120" t="s">
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="121"/>
-    </row>
-    <row r="8" spans="1:15" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
+      <c r="N7" s="120"/>
+    </row>
+    <row r="8" spans="1:15" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="106"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="107"/>
-    </row>
-    <row r="9" spans="1:15" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103" t="s">
+      <c r="D8" s="105"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="106"/>
+    </row>
+    <row r="9" spans="1:15" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="107"/>
-    </row>
-    <row r="10" spans="1:15" s="108" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="103" t="s">
+      <c r="D9" s="105"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="106"/>
+    </row>
+    <row r="10" spans="1:15" s="107" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="106"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="110" t="s">
+      <c r="D10" s="105"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="107"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="106"/>
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
@@ -2087,20 +2085,20 @@
         <v>33</v>
       </c>
       <c r="D11" s="29"/>
-      <c r="E11" s="112"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="40" t="s">
         <v>37</v>
       </c>
       <c r="J11" s="34"/>
       <c r="K11" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="84"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="60" t="s">
+      <c r="L11" s="83"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="59" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2113,18 +2111,18 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="29"/>
-      <c r="E12" s="112"/>
+      <c r="E12" s="111"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="41" t="s">
         <v>80</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="56"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="55"/>
     </row>
     <row r="13" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -2134,21 +2132,21 @@
         <v>118</v>
       </c>
       <c r="C13" s="28"/>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="112"/>
+      <c r="E13" s="111"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="41" t="s">
         <v>81</v>
       </c>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="56"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="55"/>
     </row>
     <row r="14" spans="1:15" s="30" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
@@ -2158,77 +2156,77 @@
         <v>118</v>
       </c>
       <c r="C14" s="28"/>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="112"/>
+      <c r="E14" s="111"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="41" t="s">
         <v>82</v>
       </c>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="56"/>
-    </row>
-    <row r="15" spans="1:15" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="125" t="s">
+      <c r="L14" s="83"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="55"/>
+    </row>
+    <row r="15" spans="1:15" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="126"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127" t="s">
+      <c r="C15" s="125"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="128"/>
-    </row>
-    <row r="16" spans="1:15" s="129" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="125" t="s">
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="127"/>
+    </row>
+    <row r="16" spans="1:15" s="128" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="128"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="127"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="112"/>
+      <c r="E17" s="111"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="41"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="56"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="55"/>
     </row>
     <row r="18" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
@@ -2241,20 +2239,20 @@
         <v>48</v>
       </c>
       <c r="D18" s="29"/>
-      <c r="E18" s="112"/>
+      <c r="E18" s="111"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="40" t="s">
         <v>54</v>
       </c>
       <c r="J18" s="34"/>
       <c r="K18" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="L18" s="84"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="61" t="s">
+      <c r="L18" s="83"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="60" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2269,20 +2267,20 @@
         <v>49</v>
       </c>
       <c r="D19" s="29"/>
-      <c r="E19" s="112"/>
+      <c r="E19" s="111"/>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="40" t="s">
         <v>56</v>
       </c>
       <c r="J19" s="34"/>
       <c r="K19" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="84"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="62" t="s">
+      <c r="L19" s="83"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="61" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2295,62 +2293,62 @@
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="112"/>
+      <c r="E20" s="111"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="41"/>
+      <c r="I20" s="40"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="L20" s="84"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="56"/>
-    </row>
-    <row r="21" spans="1:15" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="L20" s="83"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="55"/>
+    </row>
+    <row r="21" spans="1:15" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="84"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="112"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="94" t="s">
+      <c r="E21" s="111"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="M21" s="84"/>
-      <c r="N21" s="92"/>
-    </row>
-    <row r="22" spans="1:15" s="93" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="90" t="s">
+      <c r="M21" s="83"/>
+      <c r="N21" s="91"/>
+    </row>
+    <row r="22" spans="1:15" s="92" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="84"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="112"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="95" t="s">
+      <c r="E22" s="111"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="M22" s="84"/>
-      <c r="N22" s="92"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="91"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -2361,18 +2359,18 @@
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="29"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="111"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="41"/>
+      <c r="I23" s="40"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="85" t="s">
+      <c r="L23" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="M23" s="47"/>
-      <c r="N23" s="56"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="55"/>
     </row>
     <row r="24" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -2383,42 +2381,42 @@
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="112"/>
+      <c r="E24" s="111"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="41"/>
+      <c r="I24" s="40"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="85" t="s">
+      <c r="L24" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="M24" s="47"/>
-      <c r="N24" s="56"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="55"/>
     </row>
     <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="78"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="78" t="s">
+      <c r="C25" s="77"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="79" t="s">
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="79"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="82"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="81"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -2429,19 +2427,19 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="112"/>
+      <c r="E26" s="111"/>
       <c r="F26" s="5" t="s">
         <v>63</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="41"/>
+      <c r="I26" s="40"/>
       <c r="J26" s="12" t="s">
         <v>23</v>
       </c>
       <c r="K26" s="12"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="56"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="55"/>
     </row>
     <row r="27" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
@@ -2452,38 +2450,38 @@
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="29"/>
-      <c r="E27" s="112"/>
+      <c r="E27" s="111"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="41"/>
+      <c r="I27" s="40"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="56"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="55"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="68" t="s">
+      <c r="C28" s="65"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="70"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="69"/>
       <c r="O28" s="25"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2495,41 +2493,41 @@
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="29"/>
-      <c r="E29" s="112"/>
+      <c r="E29" s="111"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
-      <c r="I29" s="42" t="s">
+      <c r="I29" s="41" t="s">
         <v>53</v>
       </c>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="56"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="55"/>
       <c r="O29" s="25"/>
     </row>
     <row r="30" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="75" t="s">
+      <c r="C30" s="72"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="57"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="56"/>
       <c r="O30" s="25"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2537,16 +2535,16 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="29"/>
-      <c r="E31" s="112"/>
+      <c r="E31" s="111"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="41"/>
+      <c r="I31" s="40"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="56"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="55"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -2559,16 +2557,16 @@
         <v>13</v>
       </c>
       <c r="D32" s="29"/>
-      <c r="E32" s="112"/>
+      <c r="E32" s="111"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="41"/>
+      <c r="I32" s="40"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="56"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="55"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -2581,16 +2579,16 @@
         <v>14</v>
       </c>
       <c r="D33" s="29"/>
-      <c r="E33" s="112"/>
+      <c r="E33" s="111"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="41"/>
+      <c r="I33" s="40"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="56"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="55"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -2603,16 +2601,16 @@
         <v>15</v>
       </c>
       <c r="D34" s="29"/>
-      <c r="E34" s="112"/>
+      <c r="E34" s="111"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="41"/>
+      <c r="I34" s="40"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="56"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="55"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -2625,16 +2623,16 @@
         <v>16</v>
       </c>
       <c r="D35" s="29"/>
-      <c r="E35" s="112"/>
+      <c r="E35" s="111"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="41"/>
+      <c r="I35" s="40"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="56"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="55"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -2645,16 +2643,16 @@
         <v>40</v>
       </c>
       <c r="D36" s="29"/>
-      <c r="E36" s="112"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="41"/>
+      <c r="I36" s="40"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="56"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="55"/>
     </row>
     <row r="37" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
@@ -2665,16 +2663,16 @@
         <v>41</v>
       </c>
       <c r="D37" s="29"/>
-      <c r="E37" s="112"/>
+      <c r="E37" s="111"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="41"/>
+      <c r="I37" s="40"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="56"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="55"/>
     </row>
     <row r="38" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
@@ -2683,18 +2681,18 @@
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
       <c r="D38" s="29"/>
-      <c r="E38" s="112"/>
+      <c r="E38" s="111"/>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
-      <c r="I38" s="41"/>
+      <c r="I38" s="40"/>
       <c r="J38" s="34"/>
       <c r="K38" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="L38" s="84"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="61" t="s">
+      <c r="L38" s="83"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="60" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2705,18 +2703,18 @@
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
       <c r="D39" s="29"/>
-      <c r="E39" s="112"/>
+      <c r="E39" s="111"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
-      <c r="I39" s="41"/>
+      <c r="I39" s="40"/>
       <c r="J39" s="34"/>
       <c r="K39" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="L39" s="84"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="63" t="s">
+      <c r="L39" s="83"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="62" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2729,18 +2727,18 @@
       </c>
       <c r="C40" s="33"/>
       <c r="D40" s="29"/>
-      <c r="E40" s="112"/>
+      <c r="E40" s="111"/>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
-      <c r="I40" s="41"/>
+      <c r="I40" s="40"/>
       <c r="J40" s="34"/>
       <c r="K40" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="L40" s="84"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="62" t="s">
+      <c r="L40" s="83"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="61" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2751,85 +2749,85 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="29"/>
-      <c r="E41" s="112"/>
+      <c r="E41" s="111"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="41"/>
+      <c r="I41" s="40"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="84"/>
-      <c r="N41" s="56" t="s">
+      <c r="L41" s="83"/>
+      <c r="N41" s="55" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="125" t="s">
+    <row r="42" spans="1:14" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="143" t="s">
+      <c r="B42" s="142" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="126"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="126" t="s">
+      <c r="C42" s="125"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="126" t="s">
+      <c r="G42" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="H42" s="126"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="127"/>
-      <c r="K42" s="127"/>
-      <c r="L42" s="127"/>
-      <c r="M42" s="127"/>
-      <c r="N42" s="128"/>
-    </row>
-    <row r="43" spans="1:14" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="125" t="s">
+      <c r="H42" s="125"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="126"/>
+      <c r="K42" s="126"/>
+      <c r="L42" s="126"/>
+      <c r="M42" s="126"/>
+      <c r="N42" s="127"/>
+    </row>
+    <row r="43" spans="1:14" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="144"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="127"/>
-      <c r="E43" s="127"/>
-      <c r="F43" s="126" t="s">
+      <c r="B43" s="143"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="G43" s="126" t="s">
+      <c r="G43" s="125" t="s">
         <v>90</v>
       </c>
-      <c r="H43" s="126"/>
-      <c r="I43" s="127"/>
-      <c r="J43" s="127"/>
-      <c r="K43" s="127"/>
-      <c r="L43" s="127"/>
-      <c r="M43" s="127"/>
-      <c r="N43" s="128"/>
-    </row>
-    <row r="44" spans="1:14" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="125" t="s">
+      <c r="H43" s="125"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="126"/>
+      <c r="K43" s="126"/>
+      <c r="L43" s="126"/>
+      <c r="M43" s="126"/>
+      <c r="N43" s="127"/>
+    </row>
+    <row r="44" spans="1:14" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="144"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="127"/>
-      <c r="E44" s="127"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="126"/>
-      <c r="H44" s="126" t="s">
+      <c r="B44" s="143"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="I44" s="127"/>
-      <c r="J44" s="127"/>
-      <c r="K44" s="127"/>
-      <c r="L44" s="127"/>
-      <c r="M44" s="127"/>
-      <c r="N44" s="128"/>
+      <c r="I44" s="126"/>
+      <c r="J44" s="126"/>
+      <c r="K44" s="126"/>
+      <c r="L44" s="126"/>
+      <c r="M44" s="126"/>
+      <c r="N44" s="127"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -2840,32 +2838,32 @@
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="29"/>
-      <c r="E45" s="112"/>
+      <c r="E45" s="111"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="41"/>
+      <c r="I45" s="40"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="56"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="55"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="29"/>
-      <c r="E46" s="112"/>
+      <c r="E46" s="111"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="41"/>
+      <c r="I46" s="40"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="56"/>
+      <c r="L46" s="83"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="55"/>
     </row>
     <row r="47" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
@@ -2873,76 +2871,76 @@
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="115"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="114"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I47" s="43"/>
+      <c r="I47" s="42"/>
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="57"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="56"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="130" t="s">
+      <c r="A49" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="B49" s="131"/>
-      <c r="C49" s="131"/>
-      <c r="D49" s="131"/>
-      <c r="E49" s="131"/>
-      <c r="F49" s="131"/>
-      <c r="G49" s="131"/>
-      <c r="H49" s="131"/>
-      <c r="I49" s="131"/>
+      <c r="B49" s="130"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="131"/>
-      <c r="B50" s="131"/>
-      <c r="C50" s="131"/>
-      <c r="D50" s="131"/>
-      <c r="E50" s="131"/>
-      <c r="F50" s="131"/>
-      <c r="G50" s="131"/>
-      <c r="H50" s="131"/>
-      <c r="I50" s="131"/>
+      <c r="A50" s="130"/>
+      <c r="B50" s="130"/>
+      <c r="C50" s="130"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="130"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="131"/>
-      <c r="B51" s="131"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="131"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="131"/>
-      <c r="H51" s="131"/>
-      <c r="I51" s="131"/>
+      <c r="A51" s="130"/>
+      <c r="B51" s="130"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="130"/>
+      <c r="I51" s="130"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="131"/>
-      <c r="B52" s="131"/>
-      <c r="C52" s="131"/>
-      <c r="D52" s="131"/>
-      <c r="E52" s="131"/>
-      <c r="F52" s="131"/>
-      <c r="G52" s="131"/>
-      <c r="H52" s="131"/>
-      <c r="I52" s="131"/>
+      <c r="A52" s="130"/>
+      <c r="B52" s="130"/>
+      <c r="C52" s="130"/>
+      <c r="D52" s="130"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="130"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="130"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="131"/>
-      <c r="B53" s="131"/>
-      <c r="C53" s="131"/>
-      <c r="D53" s="131"/>
-      <c r="E53" s="131"/>
-      <c r="F53" s="131"/>
-      <c r="G53" s="131"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="131"/>
+      <c r="A53" s="130"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="130"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
@@ -2963,31 +2961,34 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
+      <c r="A57" s="44"/>
       <c r="B57" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="C57" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
+      <c r="A58" s="50"/>
       <c r="B58" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="93"/>
+      <c r="A59" s="92"/>
       <c r="B59" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="108"/>
+      <c r="A60" s="107"/>
       <c r="B60" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="122"/>
+      <c r="A61" s="121"/>
       <c r="B61" s="1" t="s">
         <v>141</v>
       </c>
@@ -2996,13 +2997,13 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="126"/>
+      <c r="A62" s="125"/>
       <c r="B62" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="125"/>
+      <c r="A63" s="124"/>
       <c r="B63" s="1" t="s">
         <v>147</v>
       </c>

--- a/STM32F103RCT6资源分配.xlsx
+++ b/STM32F103RCT6资源分配.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\大三比赛玩一玩\生物学院的一个东西\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E47172-A13E-4A02-A6EC-FB02B0377AF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458EE867-80DB-41AC-9A04-DBE07CA64681}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="169">
   <si>
     <t>PC13</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,13 +184,6 @@
   </si>
   <si>
     <t>PB8</t>
-  </si>
-  <si>
-    <t>ADC12_IN8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC12_IN9</t>
   </si>
   <si>
     <t>TIM3_CH3</t>
@@ -547,6 +540,94 @@
   </si>
   <si>
     <t>换成其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM3+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM2+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM1+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM3-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM2-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM1-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encode1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encode2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12_IN8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12_IN9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COIL_OUT3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COIL_OUT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COIL_OUT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_bat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_EN_OC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_EN_OC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_EN_OC3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,7 +779,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1069,11 +1150,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1503,6 +1606,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1784,241 +1899,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="101" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="115" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" style="43" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" style="13" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" style="86" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" style="48" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="38" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="23.77734375" style="147" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="101" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="115" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" style="43" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="86" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" style="48" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="38" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="138" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="136" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="131" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="132"/>
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="144"/>
+      <c r="B1" s="134" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="138" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="131" t="s">
+        <v>104</v>
+      </c>
       <c r="F1" s="132"/>
       <c r="G1" s="132"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="131" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="131" t="s">
+        <v>111</v>
+      </c>
       <c r="K1" s="132"/>
       <c r="L1" s="132"/>
       <c r="M1" s="132"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="135"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="97" t="s">
+      <c r="N1" s="132"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="145"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="110" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="H2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="J2" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="K2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="M2" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="N2" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="O2" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="N2" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" s="18" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" s="18" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="146"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="17"/>
-      <c r="D3" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="111" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" s="19" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="N3" s="55" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="N3" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" s="55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="147" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="53"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="57" t="s">
+      <c r="I4" s="53"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="46"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="55"/>
-    </row>
-    <row r="5" spans="1:15" s="50" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="O4" s="55"/>
+    </row>
+    <row r="5" spans="1:16" s="50" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="147" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="53"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47" t="s">
+      <c r="I5" s="53"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="46"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="58" t="s">
+      <c r="L5" s="46"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="55"/>
-    </row>
-    <row r="6" spans="1:15" s="121" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="116" t="s">
+      <c r="O5" s="55"/>
+    </row>
+    <row r="6" spans="1:16" s="121" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="147"/>
+      <c r="B6" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="117" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="117" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="122" t="s">
+      <c r="E6" s="111"/>
+      <c r="F6" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="117"/>
       <c r="G6" s="117"/>
       <c r="H6" s="117"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="119" t="s">
+      <c r="I6" s="117"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="111"/>
       <c r="L6" s="111"/>
-      <c r="M6" s="119" t="s">
+      <c r="M6" s="111"/>
+      <c r="N6" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="120"/>
-    </row>
-    <row r="7" spans="1:15" s="121" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
+      <c r="O6" s="120"/>
+    </row>
+    <row r="7" spans="1:16" s="121" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="147"/>
+      <c r="B7" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="117" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="117" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="111"/>
+      <c r="F7" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="117"/>
       <c r="G7" s="117"/>
       <c r="H7" s="117"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="119" t="s">
+      <c r="I7" s="117"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="111"/>
       <c r="L7" s="111"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="111"/>
+      <c r="N7" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="120"/>
-    </row>
-    <row r="8" spans="1:15" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
+      <c r="O7" s="120"/>
+    </row>
+    <row r="8" spans="1:16" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="147" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="103" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="111"/>
       <c r="G8" s="105"/>
       <c r="H8" s="105"/>
       <c r="I8" s="105"/>
@@ -2026,21 +2155,24 @@
       <c r="K8" s="105"/>
       <c r="L8" s="105"/>
       <c r="M8" s="105"/>
-      <c r="N8" s="106"/>
-    </row>
-    <row r="9" spans="1:15" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
+      <c r="N8" s="105"/>
+      <c r="O8" s="106"/>
+    </row>
+    <row r="9" spans="1:16" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="147" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="103" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="103" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="111"/>
       <c r="G9" s="105"/>
       <c r="H9" s="105"/>
       <c r="I9" s="105"/>
@@ -2048,848 +2180,916 @@
       <c r="K9" s="105"/>
       <c r="L9" s="105"/>
       <c r="M9" s="105"/>
-      <c r="N9" s="106"/>
-    </row>
-    <row r="10" spans="1:15" s="107" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="102" t="s">
+      <c r="N9" s="105"/>
+      <c r="O9" s="106"/>
+    </row>
+    <row r="10" spans="1:16" s="107" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="147" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="103" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="105"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="111"/>
       <c r="G10" s="105"/>
       <c r="H10" s="105"/>
       <c r="I10" s="105"/>
       <c r="J10" s="105"/>
-      <c r="K10" s="109" t="s">
+      <c r="K10" s="105"/>
+      <c r="L10" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="105"/>
       <c r="M10" s="105"/>
-      <c r="N10" s="106"/>
-    </row>
-    <row r="11" spans="1:15" s="36" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="N10" s="105"/>
+      <c r="O10" s="106"/>
+    </row>
+    <row r="11" spans="1:16" s="36" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="147" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="C11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="D11" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="33"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="111"/>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="33"/>
+      <c r="J11" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="34"/>
+      <c r="L11" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="83"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="59" t="s">
+      <c r="M11" s="83"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="59" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="11"/>
+    <row r="12" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="147" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="111"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="12"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="41" t="s">
+        <v>78</v>
+      </c>
       <c r="K12" s="12"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="55"/>
-    </row>
-    <row r="13" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="111"/>
-      <c r="F13" s="28"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="55"/>
+    </row>
+    <row r="13" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="147" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="111"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" s="29"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="41" t="s">
+        <v>79</v>
+      </c>
       <c r="K13" s="29"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="55"/>
-    </row>
-    <row r="14" spans="1:15" s="30" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="96" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="28"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="55"/>
+    </row>
+    <row r="14" spans="1:16" s="30" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="147" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="111"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="29"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="41" t="s">
+        <v>80</v>
+      </c>
       <c r="K14" s="29"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="55"/>
-    </row>
-    <row r="15" spans="1:15" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="124" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="140" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="126"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="55"/>
+    </row>
+    <row r="15" spans="1:16" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="147"/>
+      <c r="B15" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="140" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="125"/>
       <c r="E15" s="126"/>
-      <c r="F15" s="125"/>
+      <c r="F15" s="126"/>
       <c r="G15" s="125"/>
       <c r="H15" s="125"/>
-      <c r="I15" s="126" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" s="126"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="126" t="s">
+        <v>81</v>
+      </c>
       <c r="K15" s="126"/>
       <c r="L15" s="126"/>
       <c r="M15" s="126"/>
-      <c r="N15" s="127"/>
-    </row>
-    <row r="16" spans="1:15" s="128" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="141"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="126"/>
+      <c r="N15" s="126"/>
+      <c r="O15" s="127"/>
+    </row>
+    <row r="16" spans="1:16" s="128" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="147"/>
+      <c r="B16" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="141"/>
+      <c r="D16" s="125"/>
       <c r="E16" s="126"/>
-      <c r="F16" s="125"/>
+      <c r="F16" s="126"/>
       <c r="G16" s="125"/>
       <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="I16" s="125"/>
       <c r="J16" s="126"/>
       <c r="K16" s="126"/>
       <c r="L16" s="126"/>
       <c r="M16" s="126"/>
-      <c r="N16" s="127"/>
-    </row>
-    <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
+      <c r="N16" s="126"/>
+      <c r="O16" s="127"/>
+    </row>
+    <row r="17" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="111"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="12"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="55"/>
-    </row>
-    <row r="18" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="L17" s="12"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="55"/>
+    </row>
+    <row r="18" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="147" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="32"/>
+      <c r="C18" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="104" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="111"/>
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
-      <c r="I18" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="34"/>
-      <c r="K18" s="35" t="s">
+      <c r="I18" s="32"/>
+      <c r="J18" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" s="83"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="L18" s="83"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="60" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="36" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+    </row>
+    <row r="19" spans="1:16" s="36" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="147" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="34"/>
+      <c r="C19" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="108" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="111"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
-      <c r="I19" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="83"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="I19" s="34"/>
+      <c r="J19" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="34"/>
+      <c r="L19" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="83"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="12"/>
+      <c r="C20" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="111"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="L20" s="83"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="55"/>
-    </row>
-    <row r="21" spans="1:15" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+      <c r="I20" s="12"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="M20" s="83"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="55"/>
+    </row>
+    <row r="21" spans="1:16" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="147" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="83"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="111"/>
       <c r="G21" s="83"/>
       <c r="H21" s="83"/>
       <c r="I21" s="83"/>
       <c r="J21" s="83"/>
       <c r="K21" s="83"/>
-      <c r="L21" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="M21" s="83"/>
-      <c r="N21" s="91"/>
-    </row>
-    <row r="22" spans="1:15" s="92" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="89" t="s">
+      <c r="L21" s="83"/>
+      <c r="M21" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="N21" s="83"/>
+      <c r="O21" s="91"/>
+    </row>
+    <row r="22" spans="1:16" s="92" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="147" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="111"/>
-      <c r="F22" s="83"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="111"/>
       <c r="G22" s="83"/>
       <c r="H22" s="83"/>
       <c r="I22" s="83"/>
       <c r="J22" s="83"/>
       <c r="K22" s="83"/>
-      <c r="L22" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="M22" s="83"/>
-      <c r="N22" s="91"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="L22" s="83"/>
+      <c r="M22" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="N22" s="83"/>
+      <c r="O22" s="91"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="12"/>
+      <c r="C23" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="111"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="40"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="M23" s="46"/>
-      <c r="N23" s="55"/>
-    </row>
-    <row r="24" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="N23" s="46"/>
+      <c r="O23" s="55"/>
+    </row>
+    <row r="24" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="111"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="40"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="M24" s="46"/>
-      <c r="N24" s="55"/>
-    </row>
-    <row r="25" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="75" t="s">
+      <c r="L24" s="12"/>
+      <c r="M24" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="N24" s="46"/>
+      <c r="O24" s="55"/>
+    </row>
+    <row r="25" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="77"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="78"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="81"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="147" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="55"/>
+    </row>
+    <row r="27" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="147" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="78"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="81"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="12"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="55"/>
-    </row>
-    <row r="27" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="111"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="12"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="55"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="65"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="55"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="65"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="113"/>
       <c r="G28" s="65"/>
       <c r="H28" s="65"/>
-      <c r="I28" s="67" t="s">
+      <c r="I28" s="65"/>
+      <c r="J28" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="J28" s="66"/>
       <c r="K28" s="66"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="25"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="21"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="25"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="111"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
-      <c r="I29" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="22"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="41" t="s">
+        <v>51</v>
+      </c>
       <c r="K29" s="22"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="25"/>
-    </row>
-    <row r="30" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="72"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="25"/>
+    </row>
+    <row r="30" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="72"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="114"/>
       <c r="G30" s="72"/>
       <c r="H30" s="72"/>
-      <c r="I30" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" s="73"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="74" t="s">
+        <v>53</v>
+      </c>
       <c r="K30" s="73"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="25"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="25"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="111"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="12"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="40"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="55"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="L31" s="12"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="55"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="C32" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="5"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="111"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="12"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="40"/>
       <c r="K32" s="12"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="55"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="L32" s="12"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="55"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="C33" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="5"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="12"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="40"/>
       <c r="K33" s="12"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="55"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="L33" s="12"/>
+      <c r="M33" s="83"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="55"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="C34" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="5"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="111"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="12"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="40"/>
       <c r="K34" s="12"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="55"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="L34" s="12"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="55"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="C35" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="5"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="111"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="12"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="40"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="55"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="L35" s="12"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="55"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="147" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="5"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="111"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="12"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="40"/>
       <c r="K36" s="12"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="55"/>
-    </row>
-    <row r="37" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="L36" s="12"/>
+      <c r="M36" s="83"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="55"/>
+    </row>
+    <row r="37" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="147" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="5"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="111"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="12"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="40"/>
       <c r="K37" s="12"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="55"/>
-    </row>
-    <row r="38" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="32"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="83"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="55"/>
+    </row>
+    <row r="38" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>65</v>
+      </c>
       <c r="C38" s="32"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="111"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34" t="s">
+      <c r="I38" s="32"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="L38" s="83"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="32"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="C39" s="32"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="111"/>
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34" t="s">
+      <c r="I39" s="32"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="L39" s="83"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="62" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" s="36" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="33"/>
+      <c r="M39" s="83"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="36" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="33"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="111"/>
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="L40" s="83"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="5"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="M40" s="83"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="147" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="C41" s="5"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="111"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L41" s="83"/>
-      <c r="N41" s="55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="124" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="142" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="125"/>
-      <c r="D42" s="126"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M41" s="83"/>
+      <c r="O41" s="55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="147"/>
+      <c r="B42" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="142" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="125"/>
       <c r="E42" s="126"/>
-      <c r="F42" s="125" t="s">
-        <v>62</v>
-      </c>
+      <c r="F42" s="126"/>
       <c r="G42" s="125" t="s">
-        <v>89</v>
-      </c>
-      <c r="H42" s="125"/>
-      <c r="I42" s="126"/>
+        <v>60</v>
+      </c>
+      <c r="H42" s="125" t="s">
+        <v>87</v>
+      </c>
+      <c r="I42" s="125"/>
       <c r="J42" s="126"/>
       <c r="K42" s="126"/>
       <c r="L42" s="126"/>
       <c r="M42" s="126"/>
-      <c r="N42" s="127"/>
-    </row>
-    <row r="43" spans="1:14" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="124" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="143"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="126"/>
+      <c r="N42" s="126"/>
+      <c r="O42" s="127"/>
+    </row>
+    <row r="43" spans="1:15" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="147"/>
+      <c r="B43" s="124" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="143"/>
+      <c r="D43" s="125"/>
       <c r="E43" s="126"/>
-      <c r="F43" s="125" t="s">
-        <v>63</v>
-      </c>
+      <c r="F43" s="126"/>
       <c r="G43" s="125" t="s">
-        <v>90</v>
-      </c>
-      <c r="H43" s="125"/>
-      <c r="I43" s="126"/>
+        <v>61</v>
+      </c>
+      <c r="H43" s="125" t="s">
+        <v>88</v>
+      </c>
+      <c r="I43" s="125"/>
       <c r="J43" s="126"/>
       <c r="K43" s="126"/>
       <c r="L43" s="126"/>
       <c r="M43" s="126"/>
-      <c r="N43" s="127"/>
-    </row>
-    <row r="44" spans="1:14" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="124" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="143"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="126"/>
+      <c r="N43" s="126"/>
+      <c r="O43" s="127"/>
+    </row>
+    <row r="44" spans="1:15" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="147"/>
+      <c r="B44" s="124" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="143"/>
+      <c r="D44" s="125"/>
       <c r="E44" s="126"/>
-      <c r="F44" s="125"/>
+      <c r="F44" s="126"/>
       <c r="G44" s="125"/>
-      <c r="H44" s="125" t="s">
-        <v>91</v>
-      </c>
-      <c r="I44" s="126"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125" t="s">
+        <v>89</v>
+      </c>
       <c r="J44" s="126"/>
       <c r="K44" s="126"/>
       <c r="L44" s="126"/>
       <c r="M44" s="126"/>
-      <c r="N44" s="127"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="N44" s="126"/>
+      <c r="O44" s="127"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="5"/>
+      <c r="C45" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="111"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="12"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="40"/>
       <c r="K45" s="12"/>
-      <c r="L45" s="83"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="55"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="83"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="55"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="111"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="12"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="40"/>
       <c r="K46" s="12"/>
-      <c r="L46" s="83"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="55"/>
-    </row>
-    <row r="47" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="7"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="83"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="55"/>
+    </row>
+    <row r="47" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="C47" s="7"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="114"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I47" s="42"/>
-      <c r="J47" s="15"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J47" s="42"/>
       <c r="K47" s="15"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="56"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="129" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="130"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="56"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="129" t="s">
+        <v>129</v>
+      </c>
       <c r="C49" s="130"/>
       <c r="D49" s="130"/>
       <c r="E49" s="130"/>
@@ -2897,9 +3097,9 @@
       <c r="G49" s="130"/>
       <c r="H49" s="130"/>
       <c r="I49" s="130"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="130"/>
+      <c r="J49" s="130"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="130"/>
       <c r="C50" s="130"/>
       <c r="D50" s="130"/>
@@ -2908,9 +3108,9 @@
       <c r="G50" s="130"/>
       <c r="H50" s="130"/>
       <c r="I50" s="130"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="130"/>
+      <c r="J50" s="130"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="130"/>
       <c r="C51" s="130"/>
       <c r="D51" s="130"/>
@@ -2919,9 +3119,9 @@
       <c r="G51" s="130"/>
       <c r="H51" s="130"/>
       <c r="I51" s="130"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="130"/>
+      <c r="J51" s="130"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="130"/>
       <c r="C52" s="130"/>
       <c r="D52" s="130"/>
@@ -2930,9 +3130,9 @@
       <c r="G52" s="130"/>
       <c r="H52" s="130"/>
       <c r="I52" s="130"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="130"/>
+      <c r="J52" s="130"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="130"/>
       <c r="C53" s="130"/>
       <c r="D53" s="130"/>
@@ -2941,83 +3141,84 @@
       <c r="G53" s="130"/>
       <c r="H53" s="130"/>
       <c r="I53" s="130"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
-      <c r="B54" s="1" t="s">
+      <c r="J53" s="130"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="24"/>
+      <c r="C54" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="30"/>
+      <c r="C55" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="36"/>
+      <c r="C56" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-      <c r="B55" s="1" t="s">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="44"/>
+      <c r="C57" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="1" t="s">
+      <c r="D57" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="50"/>
+      <c r="C58" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="1" t="s">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="92"/>
+      <c r="C59" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
-      <c r="B58" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="92"/>
-      <c r="B59" s="1" t="s">
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="107"/>
+      <c r="C60" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="107"/>
-      <c r="B60" s="1" t="s">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="121"/>
+      <c r="C61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="121"/>
-      <c r="B61" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="125"/>
-      <c r="B62" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="124"/>
-      <c r="B63" s="1" t="s">
-        <v>147</v>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="125"/>
+      <c r="C62" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="124"/>
+      <c r="C63" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A49:I53"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B49:J53"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C42:C44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/STM32F103RCT6资源分配.xlsx
+++ b/STM32F103RCT6资源分配.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\大三比赛玩一玩\生物学院的一个东西\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458EE867-80DB-41AC-9A04-DBE07CA64681}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF3E859-7A84-41AF-8077-DF4409FE8BCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="184">
   <si>
     <t>PC13</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -629,6 +629,62 @@
   <si>
     <t>LED_EN_OC3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_OC_SELECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_EN_OC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_EN_OC2</t>
+  </si>
+  <si>
+    <t>KEY_EN_OC3</t>
+  </si>
+  <si>
+    <t>EC_KEY2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC_KEY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIC_Storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_FAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUZZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_SYSTEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_SELECT_OC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_SELECT_OC2</t>
+  </si>
+  <si>
+    <t>LED_SELECT_OC3</t>
   </si>
 </sst>
 </file>
@@ -1562,6 +1618,18 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1606,18 +1674,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1901,13 +1957,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" style="147" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="132" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" style="1" customWidth="1"/>
@@ -1926,38 +1982,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="144"/>
-      <c r="B1" s="134" t="s">
+      <c r="A1" s="129"/>
+      <c r="B1" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="138" t="s">
+      <c r="C1" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="136" t="s">
+      <c r="D1" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="131" t="s">
+      <c r="E1" s="135" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="131" t="s">
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="133"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="137"/>
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="145"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="137"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="141"/>
       <c r="E2" s="97" t="s">
         <v>99</v>
       </c>
@@ -1994,7 +2050,7 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" s="18" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="146"/>
+      <c r="A3" s="131"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -2018,7 +2074,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="147" t="s">
+      <c r="A4" s="132" t="s">
         <v>156</v>
       </c>
       <c r="B4" s="51" t="s">
@@ -2047,7 +2103,7 @@
       <c r="O4" s="55"/>
     </row>
     <row r="5" spans="1:16" s="50" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="132" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="51" t="s">
@@ -2076,7 +2132,9 @@
       <c r="O5" s="55"/>
     </row>
     <row r="6" spans="1:16" s="121" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="147"/>
+      <c r="A6" s="132" t="s">
+        <v>175</v>
+      </c>
       <c r="B6" s="116" t="s">
         <v>7</v>
       </c>
@@ -2105,7 +2163,9 @@
       <c r="O6" s="120"/>
     </row>
     <row r="7" spans="1:16" s="121" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="147"/>
+      <c r="A7" s="132" t="s">
+        <v>176</v>
+      </c>
       <c r="B7" s="116" t="s">
         <v>8</v>
       </c>
@@ -2134,7 +2194,7 @@
       <c r="O7" s="120"/>
     </row>
     <row r="8" spans="1:16" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="147" t="s">
+      <c r="A8" s="132" t="s">
         <v>160</v>
       </c>
       <c r="B8" s="102" t="s">
@@ -2159,7 +2219,7 @@
       <c r="O8" s="106"/>
     </row>
     <row r="9" spans="1:16" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="147" t="s">
+      <c r="A9" s="132" t="s">
         <v>161</v>
       </c>
       <c r="B9" s="102" t="s">
@@ -2184,7 +2244,7 @@
       <c r="O9" s="106"/>
     </row>
     <row r="10" spans="1:16" s="107" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="132" t="s">
         <v>162</v>
       </c>
       <c r="B10" s="102" t="s">
@@ -2211,7 +2271,7 @@
       <c r="O10" s="106"/>
     </row>
     <row r="11" spans="1:16" s="36" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="147" t="s">
+      <c r="A11" s="132" t="s">
         <v>150</v>
       </c>
       <c r="B11" s="31" t="s">
@@ -2242,7 +2302,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="147" t="s">
+      <c r="A12" s="132" t="s">
         <v>166</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2267,7 +2327,7 @@
       <c r="O12" s="55"/>
     </row>
     <row r="13" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="147" t="s">
+      <c r="A13" s="132" t="s">
         <v>153</v>
       </c>
       <c r="B13" s="26" t="s">
@@ -2294,7 +2354,7 @@
       <c r="O13" s="55"/>
     </row>
     <row r="14" spans="1:16" s="30" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="147" t="s">
+      <c r="A14" s="132" t="s">
         <v>154</v>
       </c>
       <c r="B14" s="26" t="s">
@@ -2321,11 +2381,13 @@
       <c r="O14" s="55"/>
     </row>
     <row r="15" spans="1:16" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="147"/>
+      <c r="A15" s="132" t="s">
+        <v>177</v>
+      </c>
       <c r="B15" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="140" t="s">
+      <c r="C15" s="144" t="s">
         <v>143</v>
       </c>
       <c r="D15" s="125"/>
@@ -2344,11 +2406,13 @@
       <c r="O15" s="127"/>
     </row>
     <row r="16" spans="1:16" s="128" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="147"/>
+      <c r="A16" s="132" t="s">
+        <v>177</v>
+      </c>
       <c r="B16" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="141"/>
+      <c r="C16" s="145"/>
       <c r="D16" s="125"/>
       <c r="E16" s="126"/>
       <c r="F16" s="126"/>
@@ -2379,7 +2443,7 @@
       <c r="O17" s="55"/>
     </row>
     <row r="18" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="147" t="s">
+      <c r="A18" s="132" t="s">
         <v>151</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -2410,7 +2474,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" s="36" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="147" t="s">
+      <c r="A19" s="132" t="s">
         <v>152</v>
       </c>
       <c r="B19" s="31" t="s">
@@ -2441,6 +2505,9 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="132" t="s">
+        <v>174</v>
+      </c>
       <c r="B20" s="4" t="s">
         <v>44</v>
       </c>
@@ -2463,7 +2530,7 @@
       <c r="O20" s="55"/>
     </row>
     <row r="21" spans="1:16" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="147" t="s">
+      <c r="A21" s="132" t="s">
         <v>157</v>
       </c>
       <c r="B21" s="89" t="s">
@@ -2488,7 +2555,7 @@
       <c r="O21" s="91"/>
     </row>
     <row r="22" spans="1:16" s="92" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="147" t="s">
+      <c r="A22" s="132" t="s">
         <v>157</v>
       </c>
       <c r="B22" s="89" t="s">
@@ -2513,6 +2580,9 @@
       <c r="O22" s="91"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="132" t="s">
+        <v>180</v>
+      </c>
       <c r="B23" s="4" t="s">
         <v>47</v>
       </c>
@@ -2535,6 +2605,9 @@
       <c r="O23" s="55"/>
     </row>
     <row r="24" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="132" t="s">
+        <v>178</v>
+      </c>
       <c r="B24" s="4" t="s">
         <v>56</v>
       </c>
@@ -2557,7 +2630,7 @@
       <c r="O24" s="55"/>
     </row>
     <row r="25" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="147" t="s">
+      <c r="A25" s="132" t="s">
         <v>155</v>
       </c>
       <c r="B25" s="75" t="s">
@@ -2584,7 +2657,7 @@
       <c r="O25" s="81"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="147" t="s">
+      <c r="A26" s="132" t="s">
         <v>164</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -2610,7 +2683,7 @@
       <c r="O26" s="55"/>
     </row>
     <row r="27" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="147" t="s">
+      <c r="A27" s="132" t="s">
         <v>165</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -2633,7 +2706,7 @@
       <c r="O27" s="55"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="147" t="s">
+      <c r="A28" s="132" t="s">
         <v>155</v>
       </c>
       <c r="B28" s="63" t="s">
@@ -2659,7 +2732,7 @@
       <c r="P28" s="25"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="147" t="s">
+      <c r="A29" s="132" t="s">
         <v>155</v>
       </c>
       <c r="B29" s="20" t="s">
@@ -2685,7 +2758,7 @@
       <c r="P29" s="25"/>
     </row>
     <row r="30" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="147" t="s">
+      <c r="A30" s="132" t="s">
         <v>155</v>
       </c>
       <c r="B30" s="70" t="s">
@@ -2727,6 +2800,9 @@
       <c r="O31" s="55"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="132" t="s">
+        <v>181</v>
+      </c>
       <c r="B32" s="4" t="s">
         <v>1</v>
       </c>
@@ -2749,6 +2825,9 @@
       <c r="O32" s="55"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="132" t="s">
+        <v>182</v>
+      </c>
       <c r="B33" s="4" t="s">
         <v>2</v>
       </c>
@@ -2771,6 +2850,9 @@
       <c r="O33" s="55"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="132" t="s">
+        <v>183</v>
+      </c>
       <c r="B34" s="4" t="s">
         <v>3</v>
       </c>
@@ -2793,6 +2875,9 @@
       <c r="O34" s="55"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="132" t="s">
+        <v>173</v>
+      </c>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -2815,7 +2900,7 @@
       <c r="O35" s="55"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="147" t="s">
+      <c r="A36" s="132" t="s">
         <v>168</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -2838,7 +2923,7 @@
       <c r="O36" s="55"/>
     </row>
     <row r="37" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="147" t="s">
+      <c r="A37" s="132" t="s">
         <v>163</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -2861,7 +2946,7 @@
       <c r="O37" s="55"/>
     </row>
     <row r="38" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="147" t="s">
+      <c r="A38" s="132" t="s">
         <v>147</v>
       </c>
       <c r="B38" s="31" t="s">
@@ -2886,7 +2971,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="147" t="s">
+      <c r="A39" s="132" t="s">
         <v>148</v>
       </c>
       <c r="B39" s="31" t="s">
@@ -2911,7 +2996,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" s="36" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="147" t="s">
+      <c r="A40" s="132" t="s">
         <v>149</v>
       </c>
       <c r="B40" s="31" t="s">
@@ -2938,7 +3023,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="147" t="s">
+      <c r="A41" s="132" t="s">
         <v>167</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -2962,11 +3047,13 @@
       </c>
     </row>
     <row r="42" spans="1:15" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="147"/>
+      <c r="A42" s="132" t="s">
+        <v>170</v>
+      </c>
       <c r="B42" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="142" t="s">
+      <c r="C42" s="146" t="s">
         <v>142</v>
       </c>
       <c r="D42" s="125"/>
@@ -2987,11 +3074,13 @@
       <c r="O42" s="127"/>
     </row>
     <row r="43" spans="1:15" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="147"/>
+      <c r="A43" s="132" t="s">
+        <v>171</v>
+      </c>
       <c r="B43" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="143"/>
+      <c r="C43" s="147"/>
       <c r="D43" s="125"/>
       <c r="E43" s="126"/>
       <c r="F43" s="126"/>
@@ -3010,11 +3099,13 @@
       <c r="O43" s="127"/>
     </row>
     <row r="44" spans="1:15" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="147"/>
+      <c r="A44" s="132" t="s">
+        <v>172</v>
+      </c>
       <c r="B44" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="143"/>
+      <c r="C44" s="147"/>
       <c r="D44" s="125"/>
       <c r="E44" s="126"/>
       <c r="F44" s="126"/>
@@ -3031,6 +3122,9 @@
       <c r="O44" s="127"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="132" t="s">
+        <v>169</v>
+      </c>
       <c r="B45" s="4" t="s">
         <v>0</v>
       </c>
@@ -3067,6 +3161,9 @@
       <c r="O46" s="55"/>
     </row>
     <row r="47" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="132" t="s">
+        <v>179</v>
+      </c>
       <c r="B47" s="6" t="s">
         <v>90</v>
       </c>
@@ -3087,61 +3184,61 @@
       <c r="O47" s="56"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="129" t="s">
+      <c r="B49" s="133" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="130"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="130"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="134"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="134"/>
+      <c r="H49" s="134"/>
+      <c r="I49" s="134"/>
+      <c r="J49" s="134"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="130"/>
-      <c r="C50" s="130"/>
-      <c r="D50" s="130"/>
-      <c r="E50" s="130"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="130"/>
-      <c r="I50" s="130"/>
-      <c r="J50" s="130"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="134"/>
+      <c r="I50" s="134"/>
+      <c r="J50" s="134"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="130"/>
-      <c r="C51" s="130"/>
-      <c r="D51" s="130"/>
-      <c r="E51" s="130"/>
-      <c r="F51" s="130"/>
-      <c r="G51" s="130"/>
-      <c r="H51" s="130"/>
-      <c r="I51" s="130"/>
-      <c r="J51" s="130"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="134"/>
+      <c r="H51" s="134"/>
+      <c r="I51" s="134"/>
+      <c r="J51" s="134"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="130"/>
-      <c r="C52" s="130"/>
-      <c r="D52" s="130"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="130"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="130"/>
+      <c r="B52" s="134"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="134"/>
+      <c r="E52" s="134"/>
+      <c r="F52" s="134"/>
+      <c r="G52" s="134"/>
+      <c r="H52" s="134"/>
+      <c r="I52" s="134"/>
+      <c r="J52" s="134"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="130"/>
-      <c r="C53" s="130"/>
-      <c r="D53" s="130"/>
-      <c r="E53" s="130"/>
-      <c r="F53" s="130"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="130"/>
-      <c r="I53" s="130"/>
-      <c r="J53" s="130"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="134"/>
+      <c r="H53" s="134"/>
+      <c r="I53" s="134"/>
+      <c r="J53" s="134"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="24"/>

--- a/STM32F103RCT6资源分配.xlsx
+++ b/STM32F103RCT6资源分配.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\大三比赛玩一玩\生物学院的一个东西\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF3E859-7A84-41AF-8077-DF4409FE8BCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE3F327-CE97-40B6-BF58-00A64237C464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1232,7 +1232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1674,6 +1674,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1957,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2074,7 +2080,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="148" t="s">
         <v>156</v>
       </c>
       <c r="B4" s="51" t="s">
@@ -2103,7 +2109,7 @@
       <c r="O4" s="55"/>
     </row>
     <row r="5" spans="1:16" s="50" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="149" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="51" t="s">
@@ -2194,7 +2200,7 @@
       <c r="O7" s="120"/>
     </row>
     <row r="8" spans="1:16" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="149" t="s">
         <v>160</v>
       </c>
       <c r="B8" s="102" t="s">
@@ -2219,7 +2225,7 @@
       <c r="O8" s="106"/>
     </row>
     <row r="9" spans="1:16" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="148" t="s">
         <v>161</v>
       </c>
       <c r="B9" s="102" t="s">
@@ -2244,7 +2250,7 @@
       <c r="O9" s="106"/>
     </row>
     <row r="10" spans="1:16" s="107" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="148" t="s">
         <v>162</v>
       </c>
       <c r="B10" s="102" t="s">
@@ -2302,7 +2308,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="149" t="s">
         <v>166</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2505,7 +2511,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="132" t="s">
+      <c r="A20" s="149" t="s">
         <v>174</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2530,7 +2536,7 @@
       <c r="O20" s="55"/>
     </row>
     <row r="21" spans="1:16" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="132" t="s">
+      <c r="A21" s="149" t="s">
         <v>157</v>
       </c>
       <c r="B21" s="89" t="s">
@@ -2555,7 +2561,7 @@
       <c r="O21" s="91"/>
     </row>
     <row r="22" spans="1:16" s="92" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="132" t="s">
+      <c r="A22" s="148" t="s">
         <v>157</v>
       </c>
       <c r="B22" s="89" t="s">
@@ -2580,7 +2586,7 @@
       <c r="O22" s="91"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="132" t="s">
+      <c r="A23" s="149" t="s">
         <v>180</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2800,7 +2806,7 @@
       <c r="O31" s="55"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="132" t="s">
+      <c r="A32" s="149" t="s">
         <v>181</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -2825,7 +2831,7 @@
       <c r="O32" s="55"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="132" t="s">
+      <c r="A33" s="148" t="s">
         <v>182</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2850,7 +2856,7 @@
       <c r="O33" s="55"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="132" t="s">
+      <c r="A34" s="148" t="s">
         <v>183</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -2875,7 +2881,7 @@
       <c r="O34" s="55"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="132" t="s">
+      <c r="A35" s="149" t="s">
         <v>173</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -2900,7 +2906,7 @@
       <c r="O35" s="55"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="132" t="s">
+      <c r="A36" s="149" t="s">
         <v>168</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3023,7 +3029,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="132" t="s">
+      <c r="A41" s="149" t="s">
         <v>167</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3047,7 +3053,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="132" t="s">
+      <c r="A42" s="149" t="s">
         <v>170</v>
       </c>
       <c r="B42" s="124" t="s">
@@ -3074,7 +3080,7 @@
       <c r="O42" s="127"/>
     </row>
     <row r="43" spans="1:15" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="132" t="s">
+      <c r="A43" s="148" t="s">
         <v>171</v>
       </c>
       <c r="B43" s="124" t="s">
@@ -3099,7 +3105,7 @@
       <c r="O43" s="127"/>
     </row>
     <row r="44" spans="1:15" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="132" t="s">
+      <c r="A44" s="148" t="s">
         <v>172</v>
       </c>
       <c r="B44" s="124" t="s">
@@ -3122,7 +3128,7 @@
       <c r="O44" s="127"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="132" t="s">
+      <c r="A45" s="148" t="s">
         <v>169</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -3161,7 +3167,7 @@
       <c r="O46" s="55"/>
     </row>
     <row r="47" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="132" t="s">
+      <c r="A47" s="149" t="s">
         <v>179</v>
       </c>
       <c r="B47" s="6" t="s">

--- a/STM32F103RCT6资源分配.xlsx
+++ b/STM32F103RCT6资源分配.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\大三比赛玩一玩\生物学院的一个东西\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE3F327-CE97-40B6-BF58-00A64237C464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD9C1C3-ACDF-44E8-BC4D-2CA7CBA99C92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="185">
   <si>
     <t>PC13</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -685,13 +685,17 @@
   </si>
   <si>
     <t>LED_SELECT_OC3</t>
+  </si>
+  <si>
+    <t>最终引脚分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,6 +770,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -835,7 +854,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1206,28 +1225,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1618,16 +1615,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1675,11 +1669,14 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1963,13 +1960,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" style="132" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="129" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" style="1" customWidth="1"/>
@@ -1988,38 +1985,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="129"/>
-      <c r="B1" s="138" t="s">
+      <c r="A1" s="149" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="141" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="140" t="s">
+      <c r="D1" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="135" t="s">
+      <c r="E1" s="134" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="135" t="s">
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="137"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="136"/>
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="130"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="141"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="140"/>
       <c r="E2" s="97" t="s">
         <v>99</v>
       </c>
@@ -2056,7 +2055,7 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" s="18" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="131"/>
+      <c r="A3" s="149"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -2080,7 +2079,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="130" t="s">
         <v>156</v>
       </c>
       <c r="B4" s="51" t="s">
@@ -2109,7 +2108,7 @@
       <c r="O4" s="55"/>
     </row>
     <row r="5" spans="1:16" s="50" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="131" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="51" t="s">
@@ -2138,7 +2137,7 @@
       <c r="O5" s="55"/>
     </row>
     <row r="6" spans="1:16" s="121" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="130" t="s">
         <v>175</v>
       </c>
       <c r="B6" s="116" t="s">
@@ -2169,7 +2168,7 @@
       <c r="O6" s="120"/>
     </row>
     <row r="7" spans="1:16" s="121" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="130" t="s">
         <v>176</v>
       </c>
       <c r="B7" s="116" t="s">
@@ -2200,7 +2199,7 @@
       <c r="O7" s="120"/>
     </row>
     <row r="8" spans="1:16" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="149" t="s">
+      <c r="A8" s="131" t="s">
         <v>160</v>
       </c>
       <c r="B8" s="102" t="s">
@@ -2225,7 +2224,7 @@
       <c r="O8" s="106"/>
     </row>
     <row r="9" spans="1:16" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="148" t="s">
+      <c r="A9" s="130" t="s">
         <v>161</v>
       </c>
       <c r="B9" s="102" t="s">
@@ -2250,7 +2249,7 @@
       <c r="O9" s="106"/>
     </row>
     <row r="10" spans="1:16" s="107" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="148" t="s">
+      <c r="A10" s="130" t="s">
         <v>162</v>
       </c>
       <c r="B10" s="102" t="s">
@@ -2277,7 +2276,7 @@
       <c r="O10" s="106"/>
     </row>
     <row r="11" spans="1:16" s="36" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="131" t="s">
         <v>150</v>
       </c>
       <c r="B11" s="31" t="s">
@@ -2308,7 +2307,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="149" t="s">
+      <c r="A12" s="131" t="s">
         <v>166</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2333,7 +2332,7 @@
       <c r="O12" s="55"/>
     </row>
     <row r="13" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="147" t="s">
         <v>153</v>
       </c>
       <c r="B13" s="26" t="s">
@@ -2360,7 +2359,7 @@
       <c r="O13" s="55"/>
     </row>
     <row r="14" spans="1:16" s="30" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="148" t="s">
         <v>154</v>
       </c>
       <c r="B14" s="26" t="s">
@@ -2387,13 +2386,13 @@
       <c r="O14" s="55"/>
     </row>
     <row r="15" spans="1:16" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="132" t="s">
+      <c r="A15" s="131" t="s">
         <v>177</v>
       </c>
       <c r="B15" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="144" t="s">
+      <c r="C15" s="143" t="s">
         <v>143</v>
       </c>
       <c r="D15" s="125"/>
@@ -2412,13 +2411,13 @@
       <c r="O15" s="127"/>
     </row>
     <row r="16" spans="1:16" s="128" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="132" t="s">
+      <c r="A16" s="130" t="s">
         <v>177</v>
       </c>
       <c r="B16" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="145"/>
+      <c r="C16" s="144"/>
       <c r="D16" s="125"/>
       <c r="E16" s="126"/>
       <c r="F16" s="126"/>
@@ -2449,7 +2448,7 @@
       <c r="O17" s="55"/>
     </row>
     <row r="18" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="132" t="s">
+      <c r="A18" s="131" t="s">
         <v>151</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -2480,7 +2479,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" s="36" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="132" t="s">
+      <c r="A19" s="130" t="s">
         <v>152</v>
       </c>
       <c r="B19" s="31" t="s">
@@ -2511,7 +2510,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="149" t="s">
+      <c r="A20" s="131" t="s">
         <v>174</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2536,7 +2535,7 @@
       <c r="O20" s="55"/>
     </row>
     <row r="21" spans="1:16" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="149" t="s">
+      <c r="A21" s="131" t="s">
         <v>157</v>
       </c>
       <c r="B21" s="89" t="s">
@@ -2561,7 +2560,7 @@
       <c r="O21" s="91"/>
     </row>
     <row r="22" spans="1:16" s="92" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="148" t="s">
+      <c r="A22" s="130" t="s">
         <v>157</v>
       </c>
       <c r="B22" s="89" t="s">
@@ -2586,7 +2585,7 @@
       <c r="O22" s="91"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="149" t="s">
+      <c r="A23" s="131" t="s">
         <v>180</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2611,7 +2610,7 @@
       <c r="O23" s="55"/>
     </row>
     <row r="24" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="132" t="s">
+      <c r="A24" s="131" t="s">
         <v>178</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2636,7 +2635,7 @@
       <c r="O24" s="55"/>
     </row>
     <row r="25" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="132" t="s">
+      <c r="A25" s="129" t="s">
         <v>155</v>
       </c>
       <c r="B25" s="75" t="s">
@@ -2663,7 +2662,7 @@
       <c r="O25" s="81"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="132" t="s">
+      <c r="A26" s="131" t="s">
         <v>164</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -2689,7 +2688,7 @@
       <c r="O26" s="55"/>
     </row>
     <row r="27" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="132" t="s">
+      <c r="A27" s="130" t="s">
         <v>165</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -2712,7 +2711,7 @@
       <c r="O27" s="55"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="132" t="s">
+      <c r="A28" s="129" t="s">
         <v>155</v>
       </c>
       <c r="B28" s="63" t="s">
@@ -2738,7 +2737,7 @@
       <c r="P28" s="25"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="132" t="s">
+      <c r="A29" s="129" t="s">
         <v>155</v>
       </c>
       <c r="B29" s="20" t="s">
@@ -2764,7 +2763,7 @@
       <c r="P29" s="25"/>
     </row>
     <row r="30" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="132" t="s">
+      <c r="A30" s="129" t="s">
         <v>155</v>
       </c>
       <c r="B30" s="70" t="s">
@@ -2806,7 +2805,7 @@
       <c r="O31" s="55"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="149" t="s">
+      <c r="A32" s="131" t="s">
         <v>181</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -2831,7 +2830,7 @@
       <c r="O32" s="55"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="148" t="s">
+      <c r="A33" s="130" t="s">
         <v>182</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2856,7 +2855,7 @@
       <c r="O33" s="55"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="148" t="s">
+      <c r="A34" s="130" t="s">
         <v>183</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -2881,7 +2880,7 @@
       <c r="O34" s="55"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="149" t="s">
+      <c r="A35" s="131" t="s">
         <v>173</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -2906,7 +2905,7 @@
       <c r="O35" s="55"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="149" t="s">
+      <c r="A36" s="131" t="s">
         <v>168</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -2929,7 +2928,7 @@
       <c r="O36" s="55"/>
     </row>
     <row r="37" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="132" t="s">
+      <c r="A37" s="131" t="s">
         <v>163</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -2952,7 +2951,7 @@
       <c r="O37" s="55"/>
     </row>
     <row r="38" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="132" t="s">
+      <c r="A38" s="131" t="s">
         <v>147</v>
       </c>
       <c r="B38" s="31" t="s">
@@ -2977,7 +2976,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="132" t="s">
+      <c r="A39" s="130" t="s">
         <v>148</v>
       </c>
       <c r="B39" s="31" t="s">
@@ -3002,7 +3001,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" s="36" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="132" t="s">
+      <c r="A40" s="130" t="s">
         <v>149</v>
       </c>
       <c r="B40" s="31" t="s">
@@ -3029,7 +3028,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="149" t="s">
+      <c r="A41" s="131" t="s">
         <v>167</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3053,13 +3052,13 @@
       </c>
     </row>
     <row r="42" spans="1:15" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="149" t="s">
+      <c r="A42" s="131" t="s">
         <v>170</v>
       </c>
       <c r="B42" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="146" t="s">
+      <c r="C42" s="145" t="s">
         <v>142</v>
       </c>
       <c r="D42" s="125"/>
@@ -3080,13 +3079,13 @@
       <c r="O42" s="127"/>
     </row>
     <row r="43" spans="1:15" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="148" t="s">
+      <c r="A43" s="130" t="s">
         <v>171</v>
       </c>
       <c r="B43" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="147"/>
+      <c r="C43" s="146"/>
       <c r="D43" s="125"/>
       <c r="E43" s="126"/>
       <c r="F43" s="126"/>
@@ -3105,13 +3104,13 @@
       <c r="O43" s="127"/>
     </row>
     <row r="44" spans="1:15" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="148" t="s">
+      <c r="A44" s="130" t="s">
         <v>172</v>
       </c>
       <c r="B44" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="147"/>
+      <c r="C44" s="146"/>
       <c r="D44" s="125"/>
       <c r="E44" s="126"/>
       <c r="F44" s="126"/>
@@ -3128,7 +3127,7 @@
       <c r="O44" s="127"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="148" t="s">
+      <c r="A45" s="130" t="s">
         <v>169</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -3167,7 +3166,7 @@
       <c r="O46" s="55"/>
     </row>
     <row r="47" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="149" t="s">
+      <c r="A47" s="131" t="s">
         <v>179</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -3190,61 +3189,61 @@
       <c r="O47" s="56"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="133" t="s">
+      <c r="B49" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="134"/>
-      <c r="D49" s="134"/>
-      <c r="E49" s="134"/>
-      <c r="F49" s="134"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="134"/>
-      <c r="I49" s="134"/>
-      <c r="J49" s="134"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="133"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="133"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="133"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="134"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="134"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="134"/>
-      <c r="I50" s="134"/>
-      <c r="J50" s="134"/>
+      <c r="B50" s="133"/>
+      <c r="C50" s="133"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
+      <c r="J50" s="133"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="134"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="134"/>
-      <c r="I51" s="134"/>
-      <c r="J51" s="134"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="133"/>
+      <c r="I51" s="133"/>
+      <c r="J51" s="133"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="134"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="134"/>
-      <c r="E52" s="134"/>
-      <c r="F52" s="134"/>
-      <c r="G52" s="134"/>
-      <c r="H52" s="134"/>
-      <c r="I52" s="134"/>
-      <c r="J52" s="134"/>
+      <c r="B52" s="133"/>
+      <c r="C52" s="133"/>
+      <c r="D52" s="133"/>
+      <c r="E52" s="133"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="133"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="134"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="134"/>
-      <c r="E53" s="134"/>
-      <c r="F53" s="134"/>
-      <c r="G53" s="134"/>
-      <c r="H53" s="134"/>
-      <c r="I53" s="134"/>
-      <c r="J53" s="134"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="133"/>
+      <c r="D53" s="133"/>
+      <c r="E53" s="133"/>
+      <c r="F53" s="133"/>
+      <c r="G53" s="133"/>
+      <c r="H53" s="133"/>
+      <c r="I53" s="133"/>
+      <c r="J53" s="133"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="24"/>
@@ -3313,7 +3312,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A1:A3"/>
     <mergeCell ref="B49:J53"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:O1"/>

--- a/STM32F103RCT6资源分配.xlsx
+++ b/STM32F103RCT6资源分配.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\大三比赛玩一玩\生物学院的一个东西\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD9C1C3-ACDF-44E8-BC4D-2CA7CBA99C92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD77FAF-1FB0-4068-962E-1BF6D2E975FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1425" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1624,6 +1624,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1667,15 +1676,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1958,10 +1958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:P192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H166" sqref="H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1985,40 +1985,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="134" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="141" t="s">
+      <c r="C1" s="144" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="139" t="s">
+      <c r="D1" s="142" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="137" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="134" t="s">
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="137" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="136"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="139"/>
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="149"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="140"/>
+      <c r="A2" s="134"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="143"/>
       <c r="E2" s="97" t="s">
         <v>99</v>
       </c>
@@ -2055,7 +2055,7 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" s="18" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="149"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -2332,7 +2332,7 @@
       <c r="O12" s="55"/>
     </row>
     <row r="13" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="147" t="s">
+      <c r="A13" s="132" t="s">
         <v>153</v>
       </c>
       <c r="B13" s="26" t="s">
@@ -2359,7 +2359,7 @@
       <c r="O13" s="55"/>
     </row>
     <row r="14" spans="1:16" s="30" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="148" t="s">
+      <c r="A14" s="133" t="s">
         <v>154</v>
       </c>
       <c r="B14" s="26" t="s">
@@ -2392,7 +2392,7 @@
       <c r="B15" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="143" t="s">
+      <c r="C15" s="146" t="s">
         <v>143</v>
       </c>
       <c r="D15" s="125"/>
@@ -2417,7 +2417,7 @@
       <c r="B16" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="144"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="125"/>
       <c r="E16" s="126"/>
       <c r="F16" s="126"/>
@@ -3058,7 +3058,7 @@
       <c r="B42" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="145" t="s">
+      <c r="C42" s="148" t="s">
         <v>142</v>
       </c>
       <c r="D42" s="125"/>
@@ -3085,7 +3085,7 @@
       <c r="B43" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="146"/>
+      <c r="C43" s="149"/>
       <c r="D43" s="125"/>
       <c r="E43" s="126"/>
       <c r="F43" s="126"/>
@@ -3110,7 +3110,7 @@
       <c r="B44" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="146"/>
+      <c r="C44" s="149"/>
       <c r="D44" s="125"/>
       <c r="E44" s="126"/>
       <c r="F44" s="126"/>
@@ -3189,61 +3189,61 @@
       <c r="O47" s="56"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="132" t="s">
+      <c r="B49" s="135" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="133"/>
-      <c r="D49" s="133"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="133"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="133"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="136"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="133"/>
-      <c r="C50" s="133"/>
-      <c r="D50" s="133"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="133"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="133"/>
-      <c r="J50" s="133"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="136"/>
+      <c r="F50" s="136"/>
+      <c r="G50" s="136"/>
+      <c r="H50" s="136"/>
+      <c r="I50" s="136"/>
+      <c r="J50" s="136"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="133"/>
-      <c r="C51" s="133"/>
-      <c r="D51" s="133"/>
-      <c r="E51" s="133"/>
-      <c r="F51" s="133"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="133"/>
-      <c r="J51" s="133"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="136"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="136"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="133"/>
-      <c r="C52" s="133"/>
-      <c r="D52" s="133"/>
-      <c r="E52" s="133"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="133"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="136"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="136"/>
+      <c r="F52" s="136"/>
+      <c r="G52" s="136"/>
+      <c r="H52" s="136"/>
+      <c r="I52" s="136"/>
+      <c r="J52" s="136"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="133"/>
-      <c r="C53" s="133"/>
-      <c r="D53" s="133"/>
-      <c r="E53" s="133"/>
-      <c r="F53" s="133"/>
-      <c r="G53" s="133"/>
-      <c r="H53" s="133"/>
-      <c r="I53" s="133"/>
-      <c r="J53" s="133"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="136"/>
+      <c r="F53" s="136"/>
+      <c r="G53" s="136"/>
+      <c r="H53" s="136"/>
+      <c r="I53" s="136"/>
+      <c r="J53" s="136"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="24"/>
@@ -3309,6 +3309,311 @@
       <c r="B63" s="124"/>
       <c r="C63" s="1" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="1">
+        <v>0</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" s="1">
+        <v>3</v>
+      </c>
+      <c r="C149" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150" s="1">
+        <v>6</v>
+      </c>
+      <c r="C150" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="1">
+        <v>9</v>
+      </c>
+      <c r="C151" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="1">
+        <v>12</v>
+      </c>
+      <c r="C152" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" s="1">
+        <v>15</v>
+      </c>
+      <c r="C153" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="1">
+        <v>18</v>
+      </c>
+      <c r="C154" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" s="1">
+        <v>21</v>
+      </c>
+      <c r="C155" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="1">
+        <v>24</v>
+      </c>
+      <c r="C156" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="1">
+        <v>27</v>
+      </c>
+      <c r="C157" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="1">
+        <v>30</v>
+      </c>
+      <c r="C158" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="1">
+        <v>32</v>
+      </c>
+      <c r="C159" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" s="1">
+        <v>35</v>
+      </c>
+      <c r="C160" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" s="1">
+        <v>37</v>
+      </c>
+      <c r="C161" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" s="1">
+        <v>40</v>
+      </c>
+      <c r="C162" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163" s="1">
+        <v>42</v>
+      </c>
+      <c r="C163" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" s="1">
+        <v>44</v>
+      </c>
+      <c r="C164" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" s="1">
+        <v>46</v>
+      </c>
+      <c r="C165" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" s="1">
+        <v>48</v>
+      </c>
+      <c r="C166" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167" s="1">
+        <v>50</v>
+      </c>
+      <c r="C167" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" s="1">
+        <v>51</v>
+      </c>
+      <c r="C168" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169" s="1">
+        <v>53</v>
+      </c>
+      <c r="C169" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170" s="1">
+        <v>54</v>
+      </c>
+      <c r="C170" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171" s="1">
+        <v>56</v>
+      </c>
+      <c r="C171" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172" s="1">
+        <v>57</v>
+      </c>
+      <c r="C172" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173" s="1">
+        <v>57</v>
+      </c>
+      <c r="C173" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174" s="1">
+        <v>58</v>
+      </c>
+      <c r="C174" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175" s="1">
+        <v>59</v>
+      </c>
+      <c r="C175" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176" s="1">
+        <v>59</v>
+      </c>
+      <c r="C176" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" s="1">
+        <v>59</v>
+      </c>
+      <c r="C177" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="1">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
